--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.arkhn.com/osiris/ValueSet/VSModality</t>
+    <t>https://build.fhir.org/ig/arkhn/arkhn-ig-osiris/ValueSet/VSModality</t>
   </si>
   <si>
     <t>Version</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:52:24+01:00</t>
+    <t>2023-03-28T11:28:20+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:28:20+02:00</t>
+    <t>2023-03-28T11:43:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T11:43:34+02:00</t>
+    <t>2023-03-28T12:16:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T12:16:37+02:00</t>
+    <t>2023-04-06T18:12:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T18:12:15+02:00</t>
+    <t>2023-04-06T19:36:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T19:36:35+02:00</t>
+    <t>2023-04-10T11:48:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-10T11:48:35+02:00</t>
+    <t>2023-04-12T16:34:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T16:34:31+02:00</t>
+    <t>2023-04-14T09:19:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:19:10+02:00</t>
+    <t>2023-04-25T09:25:14+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-25T09:25:14+02:00</t>
+    <t>2023-05-04T10:39:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T10:39:35+02:00</t>
+    <t>2023-05-04T16:19:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-VSModality.xlsx
+++ b/output/ValueSet-VSModality.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T16:19:38+02:00</t>
+    <t>2023-05-04T17:29:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
